--- a/UT3/Ejercicios/Resueltos/UT3_PD1.xlsx
+++ b/UT3/Ejercicios/Resueltos/UT3_PD1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correoucuedu-my.sharepoint.com/personal/juan_perezc_correo_ucu_edu_uy/Documents/Inteligencia Artificial 1/UT3/Ejercicios/Resueltos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{ACE863F0-E1E1-483B-A3C9-084401BDE41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{499EE230-8B12-45FC-9156-0EB5F5F96383}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{ACE863F0-E1E1-483B-A3C9-084401BDE41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2421D0CF-07BB-49B0-BA5F-FB76F51FF932}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{E1F418F9-83FD-4785-B619-5AF7459F15BD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>x</t>
   </si>
@@ -58,7 +58,19 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Iteraciones</t>
+    <t>ITERACION</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMSE = </t>
+  </si>
+  <si>
+    <t>Prediccion</t>
+  </si>
+  <si>
+    <t>Paso</t>
   </si>
 </sst>
 </file>
@@ -68,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,16 +100,30 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,11 +131,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -119,6 +160,13 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +553,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>representación</a:t>
+              <a:t>Modelo final</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -541,7 +589,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3914260717410324E-2"/>
+          <c:y val="0.14963184713659061"/>
+          <c:w val="0.91377580927384072"/>
+          <c:h val="0.67609377724933162"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -591,19 +649,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,19 +676,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,6 +697,95 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CA72-41B4-82FC-1A8211A8DD9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ypred</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7641242699850972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5320435351509802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0209301020947015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.01721300647284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8705737029434713</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.693426182689298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F3F7-4B83-9540-2E6B7E0B726E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -785,6 +932,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34346784776902889"/>
+          <c:y val="0.86377152826243098"/>
+          <c:w val="0.31208770778652667"/>
+          <c:h val="0.136158268723795"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-UY"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -875,124 +1063,31 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9171765342976057E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.92740061402474439"/>
+          <c:h val="0.6847685185185185"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Hoja3!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Error vs Iteración</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja3!$A$3:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja3!$B$3:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B5F9-4A9E-A5F7-CAA3326EFE0E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja3!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ypred</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1014,7 +1109,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$A$3:$A$26</c:f>
+              <c:f>Hoja3!$E$13:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1036,163 +1131,66 @@
                 <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$C$3:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.24790000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54507300000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1825706700000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5861338422999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.114083224877</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11294239262823</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.11181296870194769</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.11069483901492821</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.10958789062477893</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.10849201171853114</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.10740709160134583</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.10633302068533237</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.10526969047847905</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.10421699357369425</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.10317482363795731</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.10214307540157774</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.10112164464756196</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.10011042820108634</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.9109323919075482E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.8118230679884733E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.7137048373085885E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.6165677889355025E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B5F9-4A9E-A5F7-CAA3326EFE0E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja3!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>error</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja3!$A$3:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja3!$D$3:$D$26</c:f>
+              <c:f>Hoja3!$B$13:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1200,383 +1198,81 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.97</c:v>
+                  <c:v>-1.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.7521</c:v>
+                  <c:v>-2.5808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.4549270000000001</c:v>
+                  <c:v>-1.9840559999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.8174293299999995</c:v>
+                  <c:v>-7.4044959999999715E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58613384229999976</c:v>
+                  <c:v>-3.2415052160000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.114083224877</c:v>
+                  <c:v>0.43863681600000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11294239262823</c:v>
+                  <c:v>0.10880642672000018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11181296870194769</c:v>
+                  <c:v>-1.2678124317952</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11069483901492821</c:v>
+                  <c:v>-0.32771491919526374</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10958789062477893</c:v>
+                  <c:v>1.546311925479734</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10849201171853114</c:v>
+                  <c:v>-2.4666233275542737</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.10740709160134583</c:v>
+                  <c:v>0.69684310232554481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10633302068533237</c:v>
+                  <c:v>0.45617936640531243</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.10526969047847905</c:v>
+                  <c:v>-1.0348038348873261</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10421699357369425</c:v>
+                  <c:v>-3.9920901256348618E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10317482363795731</c:v>
+                  <c:v>1.8236626019175621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10214307540157774</c:v>
+                  <c:v>-2.3324044732730926</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10112164464756196</c:v>
+                  <c:v>0.74872708448356651</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.10011042820108634</c:v>
+                  <c:v>0.51899756744516434</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.9109323919075482E-2</c:v>
+                  <c:v>-0.99035727447345723</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.8118230679884733E-2</c:v>
+                  <c:v>9.3976431398452576E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.7137048373085885E-2</c:v>
+                  <c:v>1.8673073436593168</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.6165677889355025E-2</c:v>
+                  <c:v>-2.3097921376723258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B5F9-4A9E-A5F7-CAA3326EFE0E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja3!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>B0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja3!$A$3:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja3!$E$3:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9700000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7221000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.1770270000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1199445633</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.114083224877</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.11294239262823</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11181296870194769</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.11069483901492821</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10958789062477893</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.10849201171853114</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.10740709160134583</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.10633302068533237</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.10526969047847905</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.10421699357369425</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.10317482363795731</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.10214307540157774</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.10112164464756196</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.10011042820108634</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.9109323919075482E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.8118230679884733E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.7137048373085885E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.6165677889355025E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.5204021110461473E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B5F9-4A9E-A5F7-CAA3326EFE0E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja3!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>B1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja3!$A$3:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja3!$F$3:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.9400000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12196300000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22016008000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.41103154650000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.37586351596200002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B5F9-4A9E-A5F7-CAA3326EFE0E}"/>
+              <c16:uniqueId val="{00000001-45A3-46D7-9806-10B8DA02A988}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1588,11 +1284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1872718591"/>
-        <c:axId val="1872720671"/>
+        <c:axId val="1199968720"/>
+        <c:axId val="1199423744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1872718591"/>
+        <c:axId val="1199968720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,12 +1345,12 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1872720671"/>
+        <c:crossAx val="1199423744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1872720671"/>
+        <c:axId val="1199423744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1407,7 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1872718591"/>
+        <c:crossAx val="1199968720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1724,7 +1420,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40149671806831144"/>
+          <c:y val="0.89170093321668109"/>
+          <c:w val="0.20582441337927601"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1832,9 +1538,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Errores vs Iteraciones</a:t>
+              <a:rPr lang="es-UY"/>
+              <a:t>Y</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="es-UY" baseline="0"/>
+              <a:t> - Predicción</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1869,7 +1580,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.74512954332228E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.94657185941482347"/>
+          <c:h val="0.6337960374726348"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1877,87 +1598,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Hoja3!$G$2:$G$26</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>Iteraciones</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Y</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1983,162 +1624,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$G$3:$G$26</c:f>
+              <c:f>Hoja3!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$D$3:$D$26</c:f>
+              <c:f>Hoja3!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.97</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.7521</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.4549270000000001</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.8174293299999995</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58613384229999976</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.114083224877</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11294239262823</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.11181296870194769</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.11069483901492821</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.10958789062477893</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.10849201171853114</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.10740709160134583</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.10633302068533237</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.10526969047847905</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.10421699357369425</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.10317482363795731</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.10214307540157774</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.10112164464756196</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.10011042820108634</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.9109323919075482E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.8118230679884733E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.7137048373085885E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.6165677889355025E-2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2146,7 +1679,548 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000030-C296-411A-A720-CEDD402E53C3}"/>
+              <c16:uniqueId val="{00000000-7421-42D6-A2AC-2C2D8609CE2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prediccion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$I$3:$I$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$H$3:$H$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>1.3738593308663216</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.417222101879519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4605848728927162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5039476439059136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5473104149191108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.590673185932308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6340359569455054</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6773987279587026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7207614989719</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7641242699850972</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8074870409982946</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8508498120114916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.894212583024689</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9375753540378864</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9809381250510836</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0243008960642808</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0676636670774782</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1110264380906756</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1543892091038725</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.19775198011707</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2411147511302674</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2844775221434643</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3278402931566617</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3712030641698592</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4145658351830566</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.457928606196254</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5012913772094509</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5446541482226479</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5880169192358453</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6313796902490427</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6747424612622401</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.7181052322754375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7614680032886345</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8048307743018315</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8481935453150289</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.8915563163282263</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.9349190873414237</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9782818583546211</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.0216446293678181</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0650074003810155</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.1083701713942125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1517329424074099</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1950957134206073</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.2384584844338047</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.2818212554470021</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.3251840264601991</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.3685467974733965</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.4119095684865934</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.4552723394997913</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.4986351105129883</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.5419978815261852</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.5853606525393831</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.62872342355258</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.6720861945657775</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7154489655789749</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.7588117365921718</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.8021745076053692</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.8455372786185662</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.8889000496317641</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.932262820644961</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.975625591658158</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.0189883626713563</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.0623511336845528</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.1057139046977502</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.1490766757109476</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.1924394467241441</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.2358022177373424</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.279164988750539</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.3225277597637373</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.3658905307769338</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.4092533017901303</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.4526160728033286</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.4959788438165251</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.5393416148297234</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.5827043858429199</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.6260671568561174</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.6694299278693148</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.7127926988825113</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.7561554698957096</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.7995182409089061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7421-42D6-A2AC-2C2D8609CE2F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2158,11 +2232,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1935008463"/>
-        <c:axId val="1935010959"/>
+        <c:axId val="1248829712"/>
+        <c:axId val="1919592848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1935008463"/>
+        <c:axId val="1248829712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2219,12 +2293,12 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935010959"/>
+        <c:crossAx val="1919592848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1935010959"/>
+        <c:axId val="1919592848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2281,7 +2355,7 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935008463"/>
+        <c:crossAx val="1248829712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2293,6 +2367,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41128464585920971"/>
+          <c:y val="0.89314558264931321"/>
+          <c:w val="0.18157594265984484"/>
+          <c:h val="8.6055916360577425E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-UY"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4606,16 +4721,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4642,23 +4757,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7085D4D1-92C9-4DF8-97A8-5452A52AE95B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684CD895-028A-4A11-35C1-1B08D438DEFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4678,23 +4793,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4">
+        <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5BF708-7608-4E33-8111-1E24AB2BC219}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945F24BA-C122-F8BD-9800-0F6AFDE14ED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4713,6 +4828,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5128,16 +5247,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4A4547-2534-4529-8015-67CA782616E9}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="I24" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5150,17 +5276,20 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1.3304965598531244</v>
+      </c>
+      <c r="F2">
+        <v>0.43362771013197277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5168,80 +5297,92 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f>B30+B31*A3</f>
-        <v>0</v>
+        <f>E2+F2*A3</f>
+        <v>1.7641242699850972</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>-1</v>
+        <v>0.76412426998509719</v>
       </c>
       <c r="E3">
-        <f>B30-0.01*D3</f>
-        <v>0.01</v>
+        <f>E2-0.1*D3</f>
+        <v>1.2540841328546146</v>
       </c>
       <c r="F3">
-        <f>B31-0.01*D3*A3</f>
-        <v>0.01</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2-0.01*D3*A3</f>
+        <v>0.42598646743212182</v>
+      </c>
+      <c r="H3">
+        <f>$E$2+$F$2*I3</f>
+        <v>1.3738593308663216</v>
+      </c>
+      <c r="I3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
+        <f t="shared" ref="C4:C8" si="0">E3+F3*A4</f>
+        <v>2.5320435351509802</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D8" si="1">C4-B4</f>
+        <v>0.53204353515098024</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E8" si="2">E3-0.1*D4</f>
+        <v>1.2008797793395165</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F8" si="3">F3-0.01*D4*A4</f>
+        <v>0.41002516137759243</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H67" si="4">$E$2+$F$2*I4</f>
+        <v>1.417222101879519</v>
+      </c>
+      <c r="I4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>3</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C25" si="0">E3+F3*A4</f>
-        <v>0.03</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D25" si="1">C4-B4</f>
-        <v>-2.97</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E25" si="2">E3-0.01*D4</f>
-        <v>3.9700000000000006E-2</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F25" si="3">F3-0.01*D4*A4</f>
-        <v>6.9400000000000003E-2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.24790000000000001</v>
+        <v>2.0209301020947015</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>-1.7521</v>
+        <v>-0.97906989790529853</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>5.7221000000000008E-2</v>
+        <v>1.2987867691300463</v>
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
-        <v>0.12196300000000002</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.42960655933569841</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>1.4605848728927162</v>
+      </c>
+      <c r="I5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5250,477 +5391,1072 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.54507300000000003</v>
+        <v>3.01721300647284</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>-2.4549270000000001</v>
+        <v>1.7213006472839965E-2</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>8.1770270000000006E-2</v>
+        <v>1.2970654684827623</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>0.22016008000000004</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.42891803907678483</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>1.5039476439059136</v>
+      </c>
+      <c r="I6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>1.1825706700000003</v>
+        <v>3.8705737029434713</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>-3.8174293299999995</v>
+        <v>1.8705737029434713</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>0.1199445633</v>
+        <v>1.1100080981884151</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>0.41103154650000001</v>
-      </c>
-      <c r="G7">
+        <v>0.31668361690017655</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>1.5473104149191108</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
       <c r="B8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>2.5861338422999998</v>
+        <v>2.693426182689298</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>0.58613384229999976</v>
+        <v>-2.306573817310702</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>0.114083224877</v>
+        <v>1.3406654799194853</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G8">
+        <v>0.43201230776571165</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>1.590673185932308</v>
+      </c>
+      <c r="I8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <f>SQRT((SUM(D3:D8)^2)/6)</f>
+        <v>4.151444232955627E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.151444232955627E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>1.6340359569455054</v>
+      </c>
+      <c r="I9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>1.6773987279587026</v>
+      </c>
+      <c r="I10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>1.7207614989719</v>
+      </c>
+      <c r="I11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>1.7641242699850972</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>1.8074870409982946</v>
+      </c>
+      <c r="I13">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>-1.87</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.28700000000000003</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>1.8508498120114916</v>
+      </c>
+      <c r="I14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>-2.5808</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.54508000000000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.11771600000000002</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>1.894212583024689</v>
+      </c>
+      <c r="I15">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>-1.9840559999999998</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.74348559999999997</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.19707824000000002</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>1.9375753540378864</v>
+      </c>
+      <c r="I16">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>-7.4044959999999715E-2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.7508900959999999</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.20152093760000001</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>1.9809381250510836</v>
+      </c>
+      <c r="I17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>-3.2415052160000002</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1.0750406176</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.36359619840000001</v>
+      </c>
+      <c r="E18" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.114083224877</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>0.114083224877</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>0.11294239262823</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G9">
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>2.0243008960642808</v>
+      </c>
+      <c r="I18">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>0.43863681600000004</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.031176936</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.35920983024000003</v>
+      </c>
+      <c r="E19" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.11294239262823</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>0.11294239262823</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>0.11181296870194769</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G10">
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>2.0676636670774782</v>
+      </c>
+      <c r="I19">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>0.10880642672000018</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1.020296293328</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.35594563743840002</v>
+      </c>
+      <c r="E20" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.11181296870194769</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>0.11181296870194769</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>0.11069483901492821</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G11">
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>2.1110264380906756</v>
+      </c>
+      <c r="I20">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>-1.2678124317952</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1.1470775365075201</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.38130188607430404</v>
+      </c>
+      <c r="E21" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.11069483901492821</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>0.11069483901492821</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>0.10958789062477893</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G12">
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>2.1543892091038725</v>
+      </c>
+      <c r="I21">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>-0.32771491919526374</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.1798490284270464</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.39441048284211461</v>
+      </c>
+      <c r="E22" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.10958789062477893</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>0.10958789062477893</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>0.10849201171853114</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G13">
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>2.19775198011707</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>1.546311925479734</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.0252178358790731</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.30163176731333058</v>
+      </c>
+      <c r="E23" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.10849201171853114</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>0.10849201171853114</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>0.10740709160134583</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G14">
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>2.2411147511302674</v>
+      </c>
+      <c r="I23">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>-2.4666233275542737</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.2718801686345005</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.42496293369104426</v>
+      </c>
+      <c r="E24" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.10740709160134583</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>0.10740709160134583</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>0.10633302068533237</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G15">
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>2.2844775221434643</v>
+      </c>
+      <c r="I24">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>0.69684310232554481</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.4338025019722308</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.41799450266778881</v>
+      </c>
+      <c r="E25" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.10633302068533237</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>0.10633302068533237</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>0.10526969047847905</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.10526969047847905</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>0.10526969047847905</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>0.10421699357369425</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.10421699357369425</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>0.10421699357369425</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>0.10317482363795731</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.10317482363795731</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>0.10317482363795731</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>0.10214307540157774</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.10214307540157774</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>0.10214307540157774</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
-        <v>0.10112164464756196</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.10112164464756196</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>0.10112164464756196</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>0.10011042820108634</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.10011042820108634</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>0.10011042820108634</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>9.9109323919075482E-2</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>9.9109323919075482E-2</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>9.9109323919075482E-2</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="2"/>
-        <v>9.8118230679884733E-2</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>9.8118230679884733E-2</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>9.8118230679884733E-2</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="2"/>
-        <v>9.7137048373085885E-2</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>9.7137048373085885E-2</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>9.7137048373085885E-2</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="2"/>
-        <v>9.6165677889355025E-2</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="3"/>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G25">
-        <v>23</v>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>2.3278402931566617</v>
+      </c>
+      <c r="I25">
+        <v>2.2999999999999998</v>
       </c>
       <c r="P25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <f t="shared" ref="C26" si="4">E25+F25*A26</f>
-        <v>9.6165677889355025E-2</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ref="D26" si="5">C26-B26</f>
-        <v>9.6165677889355025E-2</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ref="E26" si="6">E25-0.01*D26</f>
-        <v>9.5204021110461473E-2</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ref="F26" si="7">F25-0.01*D26*A26</f>
-        <v>0.37586351596200002</v>
-      </c>
-      <c r="G26">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>0.45617936640531243</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1.1565779217614149</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.40430912167562943</v>
+      </c>
+      <c r="E26" s="5">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>2.3712030641698592</v>
+      </c>
+      <c r="I26">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>-1.0348038348873261</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1.2600583052501475</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.42500519837337597</v>
+      </c>
+      <c r="E27" s="5">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>2.4145658351830566</v>
+      </c>
+      <c r="I27">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>-3.9920901256348618E-2</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1.2640503953757825</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.42660203442362993</v>
+      </c>
+      <c r="E28" s="5">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>2.457928606196254</v>
+      </c>
+      <c r="I28">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>1.8236626019175621</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1.0816841351840263</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.3171822783085762</v>
+      </c>
+      <c r="E29" s="5">
+        <v>17</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>2.5012913772094509</v>
+      </c>
+      <c r="I29">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>-2.3324044732730926</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1.3149245825113356</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.4338025019722308</v>
+      </c>
+      <c r="E30" s="5">
+        <v>18</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>2.5446541482226479</v>
+      </c>
+      <c r="I30">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>0.74872708448356651</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1.2400518740629789</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.42631523112739511</v>
+      </c>
+      <c r="E31" s="5">
+        <v>19</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>2.5880169192358453</v>
+      </c>
+      <c r="I31">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>0.51899756744516434</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1.1881521173184624</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.4107453041040402</v>
+      </c>
+      <c r="E32" s="5">
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>2.6313796902490427</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>-0.99035727447345723</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1.2871878447658081</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.43055244959350936</v>
+      </c>
+      <c r="E33" s="5">
+        <v>21</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>2.6747424612622401</v>
+      </c>
+      <c r="I33">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <v>9.3976431398452576E-3</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1.2862480804518235</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.43017654386791554</v>
+      </c>
+      <c r="E34" s="5">
+        <v>22</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>2.7181052322754375</v>
+      </c>
+      <c r="I34">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <v>1.8673073436593168</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1.0995173460858918</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.31813810324835651</v>
+      </c>
+      <c r="E35" s="5">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>2.7614680032886345</v>
+      </c>
+      <c r="I35">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>-2.3097921376723258</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1.3304965598531244</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.43362771013197277</v>
+      </c>
+      <c r="E36" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>2.8048307743018315</v>
+      </c>
+      <c r="I36">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>2.8481935453150289</v>
+      </c>
+      <c r="I37">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>2.8915563163282263</v>
+      </c>
+      <c r="I38">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>2.9349190873414237</v>
+      </c>
+      <c r="I39">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>2.9782818583546211</v>
+      </c>
+      <c r="I40">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>3.0216446293678181</v>
+      </c>
+      <c r="I41">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="4"/>
+        <v>3.0650074003810155</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>3.1083701713942125</v>
+      </c>
+      <c r="I43">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>3.1517329424074099</v>
+      </c>
+      <c r="I44">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f t="shared" si="4"/>
+        <v>3.1950957134206073</v>
+      </c>
+      <c r="I45">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>3.2384584844338047</v>
+      </c>
+      <c r="I46">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>3.2818212554470021</v>
+      </c>
+      <c r="I47">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f t="shared" si="4"/>
+        <v>3.3251840264601991</v>
+      </c>
+      <c r="I48">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f t="shared" si="4"/>
+        <v>3.3685467974733965</v>
+      </c>
+      <c r="I49">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f t="shared" si="4"/>
+        <v>3.4119095684865934</v>
+      </c>
+      <c r="I50">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f t="shared" si="4"/>
+        <v>3.4552723394997913</v>
+      </c>
+      <c r="I51">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>3.4986351105129883</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <f t="shared" si="4"/>
+        <v>3.5419978815261852</v>
+      </c>
+      <c r="I53">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>3.5853606525393831</v>
+      </c>
+      <c r="I54">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <f t="shared" si="4"/>
+        <v>3.62872342355258</v>
+      </c>
+      <c r="I55">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <f t="shared" si="4"/>
+        <v>3.6720861945657775</v>
+      </c>
+      <c r="I56">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f t="shared" si="4"/>
+        <v>3.7154489655789749</v>
+      </c>
+      <c r="I57">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f t="shared" si="4"/>
+        <v>3.7588117365921718</v>
+      </c>
+      <c r="I58">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f t="shared" si="4"/>
+        <v>3.8021745076053692</v>
+      </c>
+      <c r="I59">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <f t="shared" si="4"/>
+        <v>3.8455372786185662</v>
+      </c>
+      <c r="I60">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <f t="shared" si="4"/>
+        <v>3.8889000496317641</v>
+      </c>
+      <c r="I61">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <f t="shared" si="4"/>
+        <v>3.932262820644961</v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <f t="shared" si="4"/>
+        <v>3.975625591658158</v>
+      </c>
+      <c r="I63">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <f t="shared" si="4"/>
+        <v>4.0189883626713563</v>
+      </c>
+      <c r="I64">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <f t="shared" si="4"/>
+        <v>4.0623511336845528</v>
+      </c>
+      <c r="I65">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <f t="shared" si="4"/>
+        <v>4.1057139046977502</v>
+      </c>
+      <c r="I66">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <f t="shared" si="4"/>
+        <v>4.1490766757109476</v>
+      </c>
+      <c r="I67">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <f t="shared" ref="H68:H82" si="5">$E$2+$F$2*I68</f>
+        <v>4.1924394467241441</v>
+      </c>
+      <c r="I68">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <f t="shared" si="5"/>
+        <v>4.2358022177373424</v>
+      </c>
+      <c r="I69">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <f t="shared" si="5"/>
+        <v>4.279164988750539</v>
+      </c>
+      <c r="I70">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <f t="shared" si="5"/>
+        <v>4.3225277597637373</v>
+      </c>
+      <c r="I71">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <f t="shared" si="5"/>
+        <v>4.3658905307769338</v>
+      </c>
+      <c r="I72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <f t="shared" si="5"/>
+        <v>4.4092533017901303</v>
+      </c>
+      <c r="I73">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <f t="shared" si="5"/>
+        <v>4.4526160728033286</v>
+      </c>
+      <c r="I74">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <f t="shared" si="5"/>
+        <v>4.4959788438165251</v>
+      </c>
+      <c r="I75">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <f t="shared" si="5"/>
+        <v>4.5393416148297234</v>
+      </c>
+      <c r="I76">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <f t="shared" si="5"/>
+        <v>4.5827043858429199</v>
+      </c>
+      <c r="I77">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <f t="shared" si="5"/>
+        <v>4.6260671568561174</v>
+      </c>
+      <c r="I78">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <f t="shared" si="5"/>
+        <v>4.6694299278693148</v>
+      </c>
+      <c r="I79">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <f t="shared" si="5"/>
+        <v>4.7127926988825113</v>
+      </c>
+      <c r="I80">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <f t="shared" si="5"/>
+        <v>4.7561554698957096</v>
+      </c>
+      <c r="I81">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <f t="shared" si="5"/>
+        <v>4.7995182409089061</v>
+      </c>
+      <c r="I82">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>